--- a/BOM/BillOfMaterials_v1.xlsx
+++ b/BOM/BillOfMaterials_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB81A6B4-1731-614D-BCBC-CBE6C37C9312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2289EFDE-BC86-C442-939F-E1A8BEC96ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="1800" windowWidth="34400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
   <si>
     <t>Mechnical</t>
   </si>
@@ -466,6 +466,24 @@
   </si>
   <si>
     <t>18-8 Stainless Steel Socket Head Screw M2 x 0.4 mm Thread, 15 mm Long (5 pcs) (For Stepper motor)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AiFeelife-Portable-Universal-Expandable-Adjustable/dp/B0CTCNC1P1</t>
+  </si>
+  <si>
+    <t>B0CTCNC1P1</t>
+  </si>
+  <si>
+    <t>Screen Desk Holder Metal Stand 16 Inch</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/AOPEN-Business-Portable-External-Speakers/dp/B0CJQ841VW?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer 16PM1Q Bbmiuux 15.6" Full HD 1920 x 1080 IPS Portable Monitor </t>
+  </si>
+  <si>
+    <t>B0CJQ841VW</t>
   </si>
 </sst>
 </file>
@@ -511,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -571,12 +589,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -594,7 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -602,16 +632,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1036,7 @@
         <v>72</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F7" si="0">C4*D4</f>
+        <f t="shared" ref="F4:F9" si="0">C4*D4</f>
         <v>24.9</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1023,16 +1048,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A7" si="1">A4+1</f>
+        <f t="shared" ref="A5:A9" si="1">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="20">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>11.99</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1042,7 +1067,7 @@
         <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -1054,13 +1079,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>7.99</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1070,7 +1095,7 @@
         <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -1078,983 +1103,1037 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
         <v>6.99</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31.99</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>31.99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>89.99</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>89.99</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>19.95</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2">
-        <f>C11*D11</f>
-        <v>59.849999999999994</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f>A11+1</f>
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>19.95</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F13" si="2">C12*D12</f>
-        <v>39.9</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f>A12+1</f>
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2">
+        <v>19.95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2">
+        <f>C13*D13</f>
+        <v>59.849999999999994</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f>A13+1</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>19.95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F15" si="2">C14*D14</f>
+        <v>39.9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f>A14+1</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
         <v>3.31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>9.93</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" ref="A14" si="3">A13+1</f>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16" si="3">A15+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
         <v>19.059999999999999</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14" si="4">C14*D14</f>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16" si="4">C16*D16</f>
         <v>19.059999999999999</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="6"/>
-    </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
         <v>21.88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="2">
-        <f>C19*D19</f>
+      <c r="F21" s="2">
+        <f>C21*D21</f>
         <v>21.88</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <f>A19+1</f>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>A21+1</f>
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>17.95</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" ref="F20:F21" si="5">C20*D20</f>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22:F23" si="5">C22*D22</f>
         <v>17.95</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <f>A20+1</f>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>A22+1</f>
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>3.95</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="5"/>
         <v>3.95</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
-        <v>1</v>
-      </c>
-      <c r="B25" s="16" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
         <v>5.4</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="16">
-        <f>C25*D25</f>
+      <c r="F27" s="15">
+        <f>C27*D27</f>
         <v>5.4</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <f>A25+1</f>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C32" s="2">
         <v>7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>21.13</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2">
-        <f>C30*D30</f>
+      <c r="F32" s="2">
+        <f>C32*D32</f>
         <v>147.91</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
         <v>5.14</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31:F39" si="6">C31*D31</f>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:F41" si="6">C33*D33</f>
         <v>5.14</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
         <v>9.65</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <f t="shared" si="6"/>
         <v>9.65</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4" t="s">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
         <v>9.65</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="6"/>
         <v>9.65</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="21" t="s">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
         <v>9.99</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="6"/>
         <v>9.99</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
         <v>15.99</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="6"/>
         <v>15.99</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="21" t="s">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <v>14.99</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="6"/>
         <v>29.98</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="21" t="s">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
         <v>6.2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F39" s="2">
         <f t="shared" si="6"/>
         <v>6.2</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="21" t="s">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>6.41</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="6"/>
         <v>6.41</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="21" t="s">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
         <v>3.69</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="6"/>
         <v>3.69</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
-        <v>24.57</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2">
-        <f>C43*D43</f>
-        <v>73.710000000000008</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="2">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2">
-        <v>31.33</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" ref="F44:F51" si="7">C44*D44</f>
-        <v>93.99</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>24.57</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2">
+        <f>C45*D45</f>
+        <v>73.710000000000008</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>31.33</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ref="F46:F53" si="7">C46*D46</f>
+        <v>93.99</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
         <v>11.28</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E47" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F47" s="2">
         <f t="shared" si="7"/>
         <v>11.28</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F48" s="2">
         <f t="shared" si="7"/>
         <v>4.7300000000000004</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>13.34</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="7"/>
-        <v>13.34</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="7"/>
-        <v>104.60999999999999</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>12.29</v>
+        <v>13.34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="7"/>
-        <v>12.29</v>
+        <v>13.34</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2">
-        <v>9.77</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="7"/>
-        <v>9.77</v>
+        <v>104.60999999999999</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>12.29</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="7"/>
+        <v>12.29</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>9.77</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="7"/>
+        <v>9.77</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="F54">
-        <f>SUM(F3:F52)</f>
-        <v>853.12</v>
+      <c r="F56">
+        <f>SUM(F3:F54)</f>
+        <v>975.09999999999991</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" xr:uid="{FEF5615D-8A80-254C-96B5-521D56C9C153}"/>
-    <hyperlink ref="H31" r:id="rId2" xr:uid="{835118DB-F794-7941-BEB3-A50BB95D1701}"/>
-    <hyperlink ref="H43" r:id="rId3" xr:uid="{18E06393-C4BC-054E-BB5B-1BB0E66A0A09}"/>
-    <hyperlink ref="H44" r:id="rId4" xr:uid="{F731556C-B5F4-0C40-8A56-AB8C3312A20E}"/>
-    <hyperlink ref="H21" r:id="rId5" xr:uid="{7A6F4A79-4DA6-564D-B998-55552CEB6B08}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{8F4ABF8A-53CD-A240-BE28-4D88731D25C1}"/>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{FEF5615D-8A80-254C-96B5-521D56C9C153}"/>
+    <hyperlink ref="H33" r:id="rId2" xr:uid="{835118DB-F794-7941-BEB3-A50BB95D1701}"/>
+    <hyperlink ref="H45" r:id="rId3" xr:uid="{18E06393-C4BC-054E-BB5B-1BB0E66A0A09}"/>
+    <hyperlink ref="H46" r:id="rId4" xr:uid="{F731556C-B5F4-0C40-8A56-AB8C3312A20E}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{7A6F4A79-4DA6-564D-B998-55552CEB6B08}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{8F4ABF8A-53CD-A240-BE28-4D88731D25C1}"/>
     <hyperlink ref="H4" r:id="rId7" xr:uid="{FAAD29BA-34B7-1D41-9E69-586E54E14FC8}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{F3F18084-BA4C-7B47-A91F-91D01DF65A5D}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{F3F18084-BA4C-7B47-A91F-91D01DF65A5D}"/>
     <hyperlink ref="H3" r:id="rId9" xr:uid="{C59E9856-CCEE-1245-8754-8A2367785095}"/>
-    <hyperlink ref="H25" r:id="rId10" xr:uid="{536D0B01-0066-BB40-9024-F8F75FC760C3}"/>
-    <hyperlink ref="H19" r:id="rId11" xr:uid="{CD8889CA-470A-5B45-A584-53E59D730888}"/>
-    <hyperlink ref="H20" r:id="rId12" xr:uid="{3332DC8B-1836-AA43-B12D-47AF1A9ADB45}"/>
+    <hyperlink ref="H27" r:id="rId10" xr:uid="{536D0B01-0066-BB40-9024-F8F75FC760C3}"/>
+    <hyperlink ref="H21" r:id="rId11" xr:uid="{CD8889CA-470A-5B45-A584-53E59D730888}"/>
+    <hyperlink ref="H22" r:id="rId12" xr:uid="{3332DC8B-1836-AA43-B12D-47AF1A9ADB45}"/>
     <hyperlink ref="H5" r:id="rId13" xr:uid="{9CC180F9-0823-CD48-8BEC-34FFF6BFBE2A}"/>
     <hyperlink ref="H7" r:id="rId14" xr:uid="{6F1804AA-010E-BA47-BB2C-4DB9787A096B}"/>
     <hyperlink ref="H6" r:id="rId15" xr:uid="{605067D0-36AC-FC4C-BF2C-93238E3DE100}"/>
-    <hyperlink ref="H14" r:id="rId16" xr:uid="{4836611E-4651-674D-A220-3E5A775E8B3C}"/>
-    <hyperlink ref="H34" r:id="rId17" xr:uid="{1DFBFFDB-35F2-8840-8291-DFFE5BCD9751}"/>
-    <hyperlink ref="H35" r:id="rId18" xr:uid="{FDBDEC55-434F-054E-9041-3DA3E9C46C88}"/>
-    <hyperlink ref="H36" r:id="rId19" xr:uid="{AF1CE6D5-3B0B-E74D-9187-069B5E71026E}"/>
-    <hyperlink ref="H30" r:id="rId20" xr:uid="{16BF5847-7290-8548-8454-1DE58EABE1CA}"/>
-    <hyperlink ref="H32" r:id="rId21" xr:uid="{D5F1188A-1192-E641-9888-AB87C35F378E}"/>
-    <hyperlink ref="H33" r:id="rId22" xr:uid="{73C42B54-A324-1E4D-94C1-055C0436FA47}"/>
-    <hyperlink ref="H37" r:id="rId23" xr:uid="{3BB8C3DC-0C02-E546-B957-BD7A12CE07D9}"/>
-    <hyperlink ref="H38" r:id="rId24" xr:uid="{7D4E5FE4-4319-244A-9E63-79D89E552C18}"/>
-    <hyperlink ref="H39" r:id="rId25" xr:uid="{D0C117C6-81E6-1E4D-A199-72530F46095D}"/>
-    <hyperlink ref="H46" r:id="rId26" xr:uid="{835AF97D-D112-D947-BFFF-3822D52D5084}"/>
-    <hyperlink ref="H45" r:id="rId27" xr:uid="{A8693E18-15F3-CE4B-B839-206F60641FD5}"/>
-    <hyperlink ref="H47" r:id="rId28" xr:uid="{DDF873B5-5AD4-3843-B1AE-7F5F718160DF}"/>
-    <hyperlink ref="H48" r:id="rId29" xr:uid="{60A2AB78-BED1-BD4B-96F4-46A9A9752638}"/>
-    <hyperlink ref="H49" r:id="rId30" xr:uid="{42783436-6A9D-BF4D-88B4-20E09E01B323}"/>
-    <hyperlink ref="H50" r:id="rId31" xr:uid="{ABBB72BE-0DD0-D84C-A2E5-78EB8E18731C}"/>
+    <hyperlink ref="H16" r:id="rId16" xr:uid="{4836611E-4651-674D-A220-3E5A775E8B3C}"/>
+    <hyperlink ref="H36" r:id="rId17" xr:uid="{1DFBFFDB-35F2-8840-8291-DFFE5BCD9751}"/>
+    <hyperlink ref="H37" r:id="rId18" xr:uid="{FDBDEC55-434F-054E-9041-3DA3E9C46C88}"/>
+    <hyperlink ref="H38" r:id="rId19" xr:uid="{AF1CE6D5-3B0B-E74D-9187-069B5E71026E}"/>
+    <hyperlink ref="H32" r:id="rId20" xr:uid="{16BF5847-7290-8548-8454-1DE58EABE1CA}"/>
+    <hyperlink ref="H34" r:id="rId21" xr:uid="{D5F1188A-1192-E641-9888-AB87C35F378E}"/>
+    <hyperlink ref="H35" r:id="rId22" xr:uid="{73C42B54-A324-1E4D-94C1-055C0436FA47}"/>
+    <hyperlink ref="H39" r:id="rId23" xr:uid="{3BB8C3DC-0C02-E546-B957-BD7A12CE07D9}"/>
+    <hyperlink ref="H40" r:id="rId24" xr:uid="{7D4E5FE4-4319-244A-9E63-79D89E552C18}"/>
+    <hyperlink ref="H41" r:id="rId25" xr:uid="{D0C117C6-81E6-1E4D-A199-72530F46095D}"/>
+    <hyperlink ref="H48" r:id="rId26" xr:uid="{835AF97D-D112-D947-BFFF-3822D52D5084}"/>
+    <hyperlink ref="H47" r:id="rId27" xr:uid="{A8693E18-15F3-CE4B-B839-206F60641FD5}"/>
+    <hyperlink ref="H49" r:id="rId28" xr:uid="{DDF873B5-5AD4-3843-B1AE-7F5F718160DF}"/>
+    <hyperlink ref="H50" r:id="rId29" xr:uid="{60A2AB78-BED1-BD4B-96F4-46A9A9752638}"/>
+    <hyperlink ref="H51" r:id="rId30" xr:uid="{42783436-6A9D-BF4D-88B4-20E09E01B323}"/>
+    <hyperlink ref="H52" r:id="rId31" xr:uid="{ABBB72BE-0DD0-D84C-A2E5-78EB8E18731C}"/>
+    <hyperlink ref="H8" r:id="rId32" xr:uid="{97840DF5-C32F-D446-B016-C507F24F3DDF}"/>
+    <hyperlink ref="H9" r:id="rId33" xr:uid="{5932D35D-59E1-1E45-B840-1B4006055868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/BOM/BillOfMaterials_v1.xlsx
+++ b/BOM/BillOfMaterials_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2289EFDE-BC86-C442-939F-E1A8BEC96ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E9986-7BB4-A741-A87B-5D4FED2D43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1800" windowWidth="34400" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="1800" windowWidth="34400" windowHeight="23400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
   <si>
     <t>Mechnical</t>
   </si>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>B0CJQ841VW</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>1/8 or 1/4</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -636,7 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -944,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1135,10 +1149,10 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
@@ -1163,19 +1177,19 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>89.99</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>89.99</v>
       </c>
@@ -2139,159 +2153,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
